--- a/Docs/等级.XLSX
+++ b/Docs/等级.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TouHouLittleMaidBE\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA20EB7B-9192-4FF3-B40B-EB2797AEC8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA00D8-2772-4344-8727-E7DF7CFE3245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="525" yWindow="5445" windowWidth="23205" windowHeight="10455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,10 +315,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>boss战3（琪露诺 | ⑨的智慧！）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,6 +420,10 @@
   </si>
   <si>
     <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss战3（Doge | 动物园）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,6 +611,9 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -648,9 +651,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1021,20 +1021,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="A1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
     </row>
@@ -1049,7 +1049,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
@@ -1081,60 +1081,60 @@
       <c r="N2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="15" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="15" t="s">
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="11">
         <v>40</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" s="24">
+      <c r="D3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="11">
         <v>8</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="24">
+      <c r="G3" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="11">
         <v>0.3</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="11" t="s">
         <v>45</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1143,54 +1143,54 @@
       <c r="N3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="13"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="24" t="s">
+      <c r="I4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L4" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="11" t="s">
         <v>47</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -1199,55 +1199,55 @@
       <c r="N4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J5" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>62</v>
@@ -1255,18 +1255,18 @@
       <c r="N5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -1279,32 +1279,32 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M6" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="19" t="s">
         <v>61</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="16"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
@@ -1321,24 +1321,24 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="M7" s="19"/>
+        <v>91</v>
+      </c>
+      <c r="M7" s="20"/>
       <c r="N7" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
+        <v>95</v>
+      </c>
+      <c r="O7" s="14"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
@@ -1355,24 +1355,24 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>60</v>
       </c>
       <c r="N8" s="9"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="16"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1389,18 +1389,18 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -1417,18 +1417,18 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -1445,18 +1445,18 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -1473,18 +1473,18 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -1501,18 +1501,18 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -1529,18 +1529,18 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1572,17 +1572,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1851,13 +1851,13 @@
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="24">
         <v>148.5</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
@@ -1869,13 +1869,13 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="22">
         <v>134</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
@@ -1887,13 +1887,13 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="23">
         <v>118</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Docs/等级.XLSX
+++ b/Docs/等级.XLSX
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TouHouLittleMaidBE\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA00D8-2772-4344-8727-E7DF7CFE3245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6DE95A-CDCA-41CA-9D9A-9C625EB3EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="第二版" sheetId="4" r:id="rId1"/>
     <sheet name="伤害统计" sheetId="2" r:id="rId2"/>
     <sheet name="战斗力" sheetId="3" r:id="rId3"/>
+    <sheet name="第一版" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
   <si>
     <t>血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,10 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战斗力指封闭小房间内，单人击杀的极限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1+铁傀儡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,6 +421,52 @@
   </si>
   <si>
     <t>boss战3（Doge | 动物园）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高了1级的战斗力，比第一版的2级战斗力略高一些，但是没有达到一个铁傀儡的战力，一是不止有战斗的技能，二是可以回血，即使短时间战斗力低一些，综合能力也是不若于铁傀儡的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5铁傀儡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘尘、樱之御币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1级可对抗2只无甲僵尸
+10级
+15级可单刷凋零，需要消耗大量资源
+20级可单刷循声守卫，需要消耗海量资源，极难达成
+经验值的获取是个问题
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力指封闭小房间内，单人击杀的极限
+种地速度表示方法：[每次搜索的方块数量]-[搜索的冷却时间]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -540,17 +583,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -581,16 +613,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -608,7 +634,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -635,23 +661,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1001,11 +1027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E91957-1F72-475A-95C7-FF86483379F4}">
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1020,23 +1046,971 @@
     <col min="14" max="14" width="38.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
+    <row r="1" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+    </row>
+    <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="7"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="O3:R15"/>
+    <mergeCell ref="S3:V15"/>
+    <mergeCell ref="W3:Z15"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601D85FE-F3C3-4D55-B2BF-7A8220C1BF45}">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="33.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3">
+        <v>242</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="H3" s="4">
+        <f>G3/F3</f>
+        <v>0.74444444444444446</v>
+      </c>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3">
+        <v>209</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3.08</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2.58</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" ref="H4:H10" si="0">G4/F4</f>
+        <v>0.83766233766233766</v>
+      </c>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3">
+        <v>434</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>31.5</v>
+      </c>
+      <c r="F5" s="3">
+        <v>21.6</v>
+      </c>
+      <c r="G5" s="3">
+        <v>21.65</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0023148148148147</v>
+      </c>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3">
+        <v>208</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45.22</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0048888888888889</v>
+      </c>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3">
+        <v>169</v>
+      </c>
+      <c r="D7" s="3">
+        <v>9.07</v>
+      </c>
+      <c r="E7" s="3">
+        <v>9.07</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9.07</v>
+      </c>
+      <c r="G7" s="3">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.0066152149944874</v>
+      </c>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3">
+        <v>38</v>
+      </c>
+      <c r="D8" s="3">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3.02</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>0.20133333333333334</v>
+      </c>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2862</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10.76</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6142857142857143</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3">
+        <v>900</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3.22</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5333333333333334</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="20">
+        <v>148.5</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="20">
+        <v>134</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20">
+        <v>118</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="D11:H11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5D8667-A7DC-430D-8687-1FA31E134A10}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1081,60 +2055,60 @@
       <c r="N2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="16" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="9">
         <v>40</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>0.3</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>45</v>
       </c>
       <c r="M3" s="1" t="s">
@@ -1143,54 +2117,54 @@
       <c r="N3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>47</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -1199,18 +2173,18 @@
       <c r="N4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1229,7 +2203,7 @@
         <v>84</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>75</v>
@@ -1240,139 +2214,139 @@
       <c r="I5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="15"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="10" t="s">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="10" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="9"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="15"/>
+      <c r="Z8" s="15"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -1389,18 +2363,18 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -1417,18 +2391,18 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -1445,18 +2419,18 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -1473,18 +2447,18 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="15"/>
+      <c r="Z12" s="15"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -1501,18 +2475,18 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="15"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -1529,18 +2503,18 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1554,412 +2528,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601D85FE-F3C3-4D55-B2BF-7A8220C1BF45}">
-  <dimension ref="A1:I13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5">
-        <v>242</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="E3" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="F3" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G3" s="5">
-        <v>3.35</v>
-      </c>
-      <c r="H3" s="6">
-        <f>G3/F3</f>
-        <v>0.74444444444444446</v>
-      </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5">
-        <v>209</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>4.99</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3.08</v>
-      </c>
-      <c r="G4" s="5">
-        <v>2.58</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" ref="H4:H10" si="0">G4/F4</f>
-        <v>0.83766233766233766</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5">
-        <v>434</v>
-      </c>
-      <c r="D5" s="5">
-        <v>10.5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>31.5</v>
-      </c>
-      <c r="F5" s="5">
-        <v>21.6</v>
-      </c>
-      <c r="G5" s="5">
-        <v>21.65</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0023148148148147</v>
-      </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5">
-        <v>208</v>
-      </c>
-      <c r="D6" s="5">
-        <v>45</v>
-      </c>
-      <c r="E6" s="5">
-        <v>45</v>
-      </c>
-      <c r="F6" s="5">
-        <v>45</v>
-      </c>
-      <c r="G6" s="5">
-        <v>45.22</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0048888888888889</v>
-      </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="5">
-        <v>169</v>
-      </c>
-      <c r="D7" s="5">
-        <v>9.07</v>
-      </c>
-      <c r="E7" s="5">
-        <v>9.07</v>
-      </c>
-      <c r="F7" s="5">
-        <v>9.07</v>
-      </c>
-      <c r="G7" s="5">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="H7" s="6">
-        <f t="shared" si="0"/>
-        <v>1.0066152149944874</v>
-      </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="5">
-        <v>38</v>
-      </c>
-      <c r="D8" s="5">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5">
-        <v>15</v>
-      </c>
-      <c r="G8" s="5">
-        <v>3.02</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.20133333333333334</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2862</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="5">
-        <v>10.76</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="G9" s="5">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="0"/>
-        <v>1.6142857142857143</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="5">
-        <v>900</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E10" s="5">
-        <v>22.5</v>
-      </c>
-      <c r="F10" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>3.22</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="0"/>
-        <v>1.5333333333333334</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="24">
-        <v>148.5</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="22">
-        <v>134</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="23">
-        <v>118</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D12:H12"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="D11:H11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5D8667-A7DC-430D-8687-1FA31E134A10}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Docs/等级.XLSX
+++ b/Docs/等级.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TouHouLittleMaidBE\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6DE95A-CDCA-41CA-9D9A-9C625EB3EFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61FF010-F200-40D4-8D77-5AB4A91902C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,15 +440,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神秘尘、樱之御币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -467,6 +455,32 @@
   <si>
     <t>战斗力指封闭小房间内，单人击杀的极限
 种地速度表示方法：[每次搜索的方块数量]-[搜索的冷却时间]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘尘、樱之御币、200击杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战攻速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗力指开放的平坦空间内，单人击杀的极限
+近战攻速指攻击间隔的秒数
+种地速度表示方法：[每次搜索的方块数量]-[搜索的冷却时间]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +535,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -606,6 +620,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -613,7 +664,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -640,6 +691,12 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -658,9 +715,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,11 +727,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1028,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E91957-1F72-475A-95C7-FF86483379F4}">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="T3" sqref="T3:W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1039,521 +1126,543 @@
     <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.375" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-    </row>
-    <row r="2" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+    </row>
+    <row r="4" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+    </row>
+    <row r="5" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="G5" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="I5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
       <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="1" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
       <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="17" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="7"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
       <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="7" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
       <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
       <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
       <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
       <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
       <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="13"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
       <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="O3:R15"/>
-    <mergeCell ref="S3:V15"/>
-    <mergeCell ref="W3:Z15"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="P3:S15"/>
+    <mergeCell ref="T3:W15"/>
+    <mergeCell ref="X3:AA15"/>
+    <mergeCell ref="N7:N8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1577,17 +1686,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1856,13 +1965,13 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="21">
         <v>148.5</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1875,13 +1984,13 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="21">
         <v>134</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1894,13 +2003,13 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="21">
         <v>118</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="5"/>
     </row>
   </sheetData>
@@ -1995,20 +2104,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
+      <c r="A1" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
@@ -2055,24 +2164,24 @@
       <c r="N2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="14" t="s">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -2117,18 +2226,18 @@
       <c r="N3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2173,18 +2282,18 @@
       <c r="N4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -2229,18 +2338,18 @@
       <c r="N5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
@@ -2261,24 +2370,24 @@
       <c r="L6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="18" t="s">
         <v>61</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -2297,22 +2406,22 @@
       <c r="L7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="18"/>
+      <c r="M7" s="19"/>
       <c r="N7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -2335,18 +2444,18 @@
         <v>60</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -2363,18 +2472,18 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -2391,18 +2500,18 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -2419,18 +2528,18 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -2447,18 +2556,18 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -2475,18 +2584,18 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -2503,18 +2612,18 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Docs/等级.XLSX
+++ b/Docs/等级.XLSX
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\TouHouLittleMaidBE\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61FF010-F200-40D4-8D77-5AB4A91902C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4532C36-1D66-41D6-8442-E8730B32D4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="5025" windowWidth="20850" windowHeight="10455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第二版" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="109">
   <si>
     <t>血量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,10 +432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.5铁傀儡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -481,6 +477,14 @@
   </si>
   <si>
     <t>70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,77 +698,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1118,7 +1122,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3:W15"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1133,527 +1137,527 @@
     <col min="11" max="11" width="5.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16.375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="16.375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:27" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
+      <c r="A2" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="6"/>
       <c r="O2" s="10"/>
     </row>
     <row r="3" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+    </row>
+    <row r="4" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+    </row>
+    <row r="5" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-    </row>
-    <row r="4" spans="1:27" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="22" t="s">
+      <c r="G5" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" s="22" t="s">
+      <c r="I5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="K4" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="N4" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-    </row>
-    <row r="5" spans="1:27" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="25" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="27"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="30" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="27" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1686,17 +1690,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1965,13 +1969,13 @@
       <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="31">
         <v>148.5</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1984,13 +1988,13 @@
       <c r="C12" s="3">
         <v>1</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="31">
         <v>134</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -2003,13 +2007,13 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="31">
         <v>118</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
       <c r="I13" s="5"/>
     </row>
   </sheetData>
@@ -2104,20 +2108,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="A1" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
@@ -2164,24 +2168,24 @@
       <c r="N2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="16" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -2226,18 +2230,18 @@
       <c r="N3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -2282,18 +2286,18 @@
       <c r="N4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -2338,18 +2342,18 @@
       <c r="N5" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="O5" s="14"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
@@ -2370,24 +2374,24 @@
       <c r="L6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="33" t="s">
         <v>61</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -2406,22 +2410,22 @@
       <c r="L7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="19"/>
+      <c r="M7" s="34"/>
       <c r="N7" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="O7" s="14"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
@@ -2444,18 +2448,18 @@
         <v>60</v>
       </c>
       <c r="N8" s="7"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -2472,18 +2476,18 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
@@ -2500,18 +2504,18 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
@@ -2528,18 +2532,18 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -2556,18 +2560,18 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -2584,18 +2588,18 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
@@ -2612,18 +2616,18 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
